--- a/ResultsByUHF20230906/DailyProjections_citywide20230906.xlsx
+++ b/ResultsByUHF20230906/DailyProjections_citywide20230906.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8075 (5013, 13025)</t>
+          <t>18296 (12855, 26077)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>406 (307, 550)</t>
+          <t>955 (777, 1184)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>52 (31, 88)</t>
+          <t>130 (83, 197)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>43 (23, 75)</t>
+          <t>108 (62, 171)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>59 (36, 93)</t>
+          <t>140 (90, 206)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>49 (28, 81)</t>
+          <t>118 (70, 181)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8119 (5029, 13155)</t>
+          <t>18272 (12773, 26147)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>406 (303, 557)</t>
+          <t>950 (766, 1187)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>52 (30, 88)</t>
+          <t>128 (81, 195)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>42 (22, 75)</t>
+          <t>106 (61, 169)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>58 (36, 92)</t>
+          <t>140 (90, 206)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>49 (27, 80)</t>
+          <t>118 (69, 181)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8142 (5026, 13350)</t>
+          <t>18230 (12655, 26236)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>408 (300, 565)</t>
+          <t>947 (756, 1193)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>51 (30, 88)</t>
+          <t>126 (79, 194)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>42 (22, 75)</t>
+          <t>104 (59, 168)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>58 (35, 92)</t>
+          <t>139 (89, 205)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48 (27, 80)</t>
+          <t>117 (69, 180)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8182 (5014, 13564)</t>
+          <t>18174 (12538, 26314)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>410 (298, 575)</t>
+          <t>944 (747, 1199)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>51 (29, 88)</t>
+          <t>125 (78, 193)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>41 (22, 75)</t>
+          <t>103 (58, 167)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>57 (35, 92)</t>
+          <t>138 (89, 205)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>48 (26, 80)</t>
+          <t>116 (68, 180)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8241 (4991, 13768)</t>
+          <t>18126 (12403, 26367)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>413 (296, 584)</t>
+          <t>942 (738, 1206)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>51 (29, 88)</t>
+          <t>123 (76, 193)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>41 (22, 76)</t>
+          <t>102 (57, 167)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>57 (34, 92)</t>
+          <t>137 (88, 204)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>47 (26, 79)</t>
+          <t>115 (67, 179)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8298 (4968, 14001)</t>
+          <t>18089 (12269, 26414)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>416 (295, 594)</t>
+          <t>940 (730, 1211)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>51 (29, 89)</t>
+          <t>122 (75, 192)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>41 (21, 77)</t>
+          <t>101 (57, 167)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>56 (34, 91)</t>
+          <t>136 (87, 203)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>46 (25, 79)</t>
+          <t>114 (66, 178)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (13, 31)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8372 (4939, 14221)</t>
+          <t>18037 (12144, 26426)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>419 (293, 603)</t>
+          <t>938 (721, 1216)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>51 (28, 90)</t>
+          <t>121 (74, 192)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>42 (21, 78)</t>
+          <t>100 (56, 167)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (12, 30)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>55 (33, 91)</t>
+          <t>135 (86, 202)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>46 (25, 79)</t>
+          <t>113 (66, 177)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (12, 31)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8472 (4940, 14490)</t>
+          <t>18033 (12046, 26512)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>422 (292, 613)</t>
+          <t>935 (714, 1221)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>51 (28, 91)</t>
+          <t>120 (73, 192)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>42 (21, 79)</t>
+          <t>100 (55, 167)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>55 (33, 91)</t>
+          <t>133 (84, 201)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>45 (25, 79)</t>
+          <t>112 (64, 176)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8590 (4953, 14779)</t>
+          <t>18068 (11989, 26602)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>426 (291, 624)</t>
+          <t>933 (706, 1226)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>51 (28, 92)</t>
+          <t>120 (72, 192)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>42 (21, 80)</t>
+          <t>99 (54, 167)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>54 (32, 91)</t>
+          <t>132 (83, 200)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>45 (24, 79)</t>
+          <t>110 (64, 175)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8703 (4954, 15052)</t>
+          <t>18057 (11912, 26677)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>429 (290, 635)</t>
+          <t>931 (698, 1231)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>51 (28, 94)</t>
+          <t>119 (71, 192)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42 (21, 81)</t>
+          <t>98 (54, 167)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>54 (32, 91)</t>
+          <t>131 (82, 199)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>44 (24, 79)</t>
+          <t>109 (62, 174)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8806 (4955, 15321)</t>
+          <t>18038 (11814, 26690)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>433 (290, 647)</t>
+          <t>929 (691, 1236)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>51 (28, 95)</t>
+          <t>118 (70, 192)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>43 (21, 82)</t>
+          <t>98 (53, 167)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (11, 29)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>53 (31, 91)</t>
+          <t>129 (81, 198)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>44 (23, 79)</t>
+          <t>108 (61, 173)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8912 (4952, 15578)</t>
+          <t>17989 (11716, 26687)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>438 (289, 659)</t>
+          <t>926 (683, 1240)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>52 (28, 96)</t>
+          <t>117 (69, 192)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>43 (21, 83)</t>
+          <t>97 (52, 166)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (11, 29)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>53 (31, 91)</t>
+          <t>128 (79, 198)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>44 (23, 79)</t>
+          <t>107 (60, 172)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9011 (4953, 15834)</t>
+          <t>17929 (11621, 26650)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>442 (288, 672)</t>
+          <t>924 (676, 1244)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52 (28, 98)</t>
+          <t>116 (68, 191)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>43 (21, 84)</t>
+          <t>96 (51, 166)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>53 (30, 92)</t>
+          <t>127 (78, 197)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>44 (23, 79)</t>
+          <t>105 (59, 171)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (12, 30)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9109 (4952, 16081)</t>
+          <t>17863 (11510, 26599)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>446 (287, 685)</t>
+          <t>920 (668, 1248)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53 (28, 99)</t>
+          <t>116 (67, 191)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>44 (21, 86)</t>
+          <t>96 (51, 166)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>53 (30, 92)</t>
+          <t>125 (77, 196)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>43 (23, 80)</t>
+          <t>104 (58, 171)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
     </row>
@@ -1536,57 +1536,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8246 (5159, 13157)</t>
+          <t>17798 (12434, 25412)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>395 (301, 531)</t>
+          <t>922 (751, 1143)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>55 (33, 91)</t>
+          <t>134 (85, 204)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>45 (25, 78)</t>
+          <t>110 (63, 177)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (14, 33)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 27)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>62 (38, 97)</t>
+          <t>145 (94, 214)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>52 (29, 84)</t>
+          <t>123 (72, 188)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 32)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1613,57 +1613,57 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8246 (5155, 13223)</t>
+          <t>17685 (12296, 25364)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>395 (297, 537)</t>
+          <t>914 (738, 1143)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>54 (32, 91)</t>
+          <t>131 (82, 201)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>44 (24, 77)</t>
+          <t>108 (61, 174)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 33)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>61 (38, 96)</t>
+          <t>145 (93, 213)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>51 (29, 84)</t>
+          <t>122 (71, 188)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 32)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1690,57 +1690,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8248 (5134, 13379)</t>
+          <t>17561 (12127, 25338)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>396 (294, 545)</t>
+          <t>907 (725, 1144)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>54 (32, 91)</t>
+          <t>129 (81, 200)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>44 (23, 77)</t>
+          <t>106 (60, 173)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>61 (37, 96)</t>
+          <t>144 (93, 213)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>51 (28, 84)</t>
+          <t>121 (70, 187)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 32)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1767,57 +1767,57 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8266 (5101, 13538)</t>
+          <t>17426 (11960, 25296)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>398 (291, 553)</t>
+          <t>901 (713, 1146)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>53 (31, 91)</t>
+          <t>127 (79, 198)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>43 (23, 77)</t>
+          <t>104 (59, 171)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>60 (37, 96)</t>
+          <t>143 (92, 212)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>50 (28, 83)</t>
+          <t>120 (70, 186)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 32)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8294 (5068, 13724)</t>
+          <t>17311 (11779, 25263)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>399 (289, 561)</t>
+          <t>895 (701, 1147)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>53 (31, 91)</t>
+          <t>125 (77, 197)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>103 (58, 170)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>21 (12, 32)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>60 (36, 95)</t>
+          <t>142 (90, 212)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>49 (28, 83)</t>
+          <t>119 (68, 186)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>22 (13, 32)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8331 (5027, 13901)</t>
+          <t>17193 (11602, 25191)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>400 (286, 569)</t>
+          <t>889 (690, 1148)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>53 (30, 91)</t>
+          <t>123 (76, 195)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>101 (56, 169)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>59 (36, 95)</t>
+          <t>140 (89, 210)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>49 (27, 82)</t>
+          <t>117 (67, 184)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
     </row>
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8380 (4990, 14087)</t>
+          <t>17081 (11422, 25103)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>402 (284, 576)</t>
+          <t>882 (678, 1148)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>52 (30, 92)</t>
+          <t>122 (74, 194)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>43 (22, 79)</t>
+          <t>100 (55, 168)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>58 (35, 95)</t>
+          <t>138 (87, 209)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>48 (27, 82)</t>
+          <t>116 (66, 183)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8451 (4969, 14310)</t>
+          <t>16982 (11284, 25066)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>403 (281, 584)</t>
+          <t>876 (667, 1147)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>52 (30, 92)</t>
+          <t>120 (72, 193)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>43 (22, 79)</t>
+          <t>99 (54, 167)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (12, 30)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>57 (35, 94)</t>
+          <t>137 (86, 208)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>48 (26, 81)</t>
+          <t>114 (65, 182)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8528 (4960, 14539)</t>
+          <t>16909 (11157, 25036)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>405 (279, 592)</t>
+          <t>869 (657, 1146)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>52 (29, 93)</t>
+          <t>118 (71, 192)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>43 (22, 80)</t>
+          <t>98 (53, 166)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>57 (34, 94)</t>
+          <t>135 (84, 207)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>47 (26, 81)</t>
+          <t>112 (64, 180)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (13, 32)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8605 (4937, 14756)</t>
+          <t>16802 (11024, 24968)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>407 (277, 600)</t>
+          <t>863 (647, 1146)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>52 (29, 94)</t>
+          <t>117 (69, 190)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>43 (22, 81)</t>
+          <t>96 (52, 165)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>56 (33, 94)</t>
+          <t>133 (83, 205)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>46 (25, 81)</t>
+          <t>111 (63, 179)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>21 (12, 32)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8674 (4915, 14957)</t>
+          <t>16686 (10865, 24855)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>409 (275, 609)</t>
+          <t>857 (637, 1145)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>52 (29, 94)</t>
+          <t>115 (68, 189)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>43 (22, 81)</t>
+          <t>95 (51, 163)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (11, 30)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>15 (8, 24)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>56 (33, 94)</t>
+          <t>131 (81, 204)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>46 (25, 81)</t>
+          <t>109 (61, 178)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8739 (4898, 15153)</t>
+          <t>16554 (10719, 24734)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>411 (274, 618)</t>
+          <t>850 (627, 1143)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>52 (28, 95)</t>
+          <t>114 (67, 187)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>43 (21, 82)</t>
+          <t>94 (50, 162)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (11, 29)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>55 (32, 94)</t>
+          <t>129 (80, 202)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>46 (24, 81)</t>
+          <t>108 (60, 176)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8796 (4872, 15365)</t>
+          <t>16414 (10577, 24578)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>413 (272, 628)</t>
+          <t>843 (617, 1142)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>52 (28, 96)</t>
+          <t>112 (65, 186)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>43 (21, 83)</t>
+          <t>92 (49, 161)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>55 (32, 94)</t>
+          <t>128 (78, 200)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>45 (24, 81)</t>
+          <t>106 (59, 175)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8859 (4855, 15547)</t>
+          <t>16274 (10420, 24421)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>415 (270, 638)</t>
+          <t>836 (607, 1139)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>52 (28, 97)</t>
+          <t>111 (64, 184)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>43 (21, 83)</t>
+          <t>91 (48, 159)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>18 (10, 29)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>3 (1, 6)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>54 (31, 94)</t>
+          <t>126 (77, 199)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>45 (24, 81)</t>
+          <t>104 (58, 173)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>383 (184, 746)</t>
+          <t>945 (484, 1736)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>319 (129, 671)</t>
+          <t>798 (352, 1569)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45 (19, 98)</t>
+          <t>105 (45, 218)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>41 (22, 75)</t>
+          <t>98 (53, 169)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>383 (184, 746)</t>
+          <t>945 (484, 1736)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>319 (129, 671)</t>
+          <t>798 (352, 1569)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>45 (19, 98)</t>
+          <t>105 (45, 218)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>41 (22, 75)</t>
+          <t>98 (53, 169)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>376 (179, 740)</t>
+          <t>932 (474, 1722)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>312 (124, 664)</t>
+          <t>785 (343, 1556)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45 (18, 98)</t>
+          <t>104 (44, 218)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>41 (22, 75)</t>
+          <t>98 (53, 169)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>376 (179, 740)</t>
+          <t>932 (474, 1722)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>312 (124, 664)</t>
+          <t>785 (343, 1556)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45 (18, 98)</t>
+          <t>104 (44, 218)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41 (22, 75)</t>
+          <t>98 (53, 169)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>370 (174, 734)</t>
+          <t>918 (465, 1707)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>306 (120, 657)</t>
+          <t>772 (333, 1541)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>45 (18, 98)</t>
+          <t>104 (44, 218)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>41 (21, 75)</t>
+          <t>97 (53, 168)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>370 (174, 734)</t>
+          <t>918 (465, 1707)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>306 (120, 657)</t>
+          <t>772 (333, 1541)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>45 (18, 98)</t>
+          <t>104 (44, 218)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>41 (21, 75)</t>
+          <t>97 (53, 168)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>364 (170, 729)</t>
+          <t>905 (456, 1692)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>301 (116, 652)</t>
+          <t>759 (325, 1527)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>44 (18, 97)</t>
+          <t>103 (43, 217)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>40 (21, 74)</t>
+          <t>97 (53, 168)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>364 (170, 729)</t>
+          <t>905 (456, 1692)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>301 (116, 652)</t>
+          <t>759 (325, 1527)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>44 (18, 97)</t>
+          <t>103 (43, 217)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>40 (21, 74)</t>
+          <t>97 (53, 168)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>359 (166, 723)</t>
+          <t>891 (447, 1678)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>296 (113, 647)</t>
+          <t>746 (317, 1513)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>44 (18, 97)</t>
+          <t>102 (43, 216)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40 (21, 74)</t>
+          <t>96 (52, 167)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>359 (166, 723)</t>
+          <t>891 (447, 1678)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>296 (113, 647)</t>
+          <t>746 (317, 1513)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>44 (18, 97)</t>
+          <t>102 (43, 216)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>40 (21, 74)</t>
+          <t>96 (52, 167)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>354 (163, 719)</t>
+          <t>878 (439, 1664)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>292 (111, 643)</t>
+          <t>734 (309, 1499)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>43 (17, 96)</t>
+          <t>101 (42, 215)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>39 (20, 73)</t>
+          <t>95 (51, 166)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>354 (163, 719)</t>
+          <t>878 (439, 1664)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>292 (111, 643)</t>
+          <t>734 (309, 1499)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>43 (17, 96)</t>
+          <t>101 (42, 215)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>39 (20, 73)</t>
+          <t>95 (51, 166)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>351 (160, 717)</t>
+          <t>866 (431, 1649)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>289 (109, 639)</t>
+          <t>723 (303, 1485)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>43 (17, 95)</t>
+          <t>99 (41, 214)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>39 (20, 73)</t>
+          <t>94 (51, 164)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>351 (160, 717)</t>
+          <t>866 (431, 1649)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>289 (109, 639)</t>
+          <t>723 (303, 1485)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>43 (17, 95)</t>
+          <t>99 (41, 214)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>39 (20, 73)</t>
+          <t>94 (51, 164)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>348 (158, 715)</t>
+          <t>854 (423, 1637)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>286 (107, 638)</t>
+          <t>713 (297, 1474)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42 (17, 95)</t>
+          <t>98 (41, 212)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>38 (20, 72)</t>
+          <t>93 (50, 163)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>348 (158, 715)</t>
+          <t>854 (423, 1637)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>286 (107, 638)</t>
+          <t>713 (297, 1474)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>42 (17, 95)</t>
+          <t>98 (41, 212)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>38 (20, 72)</t>
+          <t>93 (50, 163)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>345 (156, 715)</t>
+          <t>843 (415, 1625)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>284 (106, 637)</t>
+          <t>704 (291, 1462)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>41 (16, 94)</t>
+          <t>97 (40, 210)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>38 (19, 72)</t>
+          <t>92 (49, 162)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>345 (156, 715)</t>
+          <t>843 (415, 1625)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>284 (106, 637)</t>
+          <t>704 (291, 1462)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>41 (16, 94)</t>
+          <t>97 (40, 210)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>38 (19, 72)</t>
+          <t>92 (49, 162)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>343 (154, 716)</t>
+          <t>833 (408, 1614)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>282 (105, 637)</t>
+          <t>696 (285, 1452)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>41 (16, 94)</t>
+          <t>96 (39, 208)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>37 (19, 72)</t>
+          <t>90 (48, 160)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>343 (154, 716)</t>
+          <t>833 (408, 1614)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>282 (105, 637)</t>
+          <t>696 (285, 1452)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>41 (16, 94)</t>
+          <t>96 (39, 208)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>37 (19, 72)</t>
+          <t>90 (48, 160)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>342 (153, 718)</t>
+          <t>824 (401, 1605)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>281 (104, 639)</t>
+          <t>687 (280, 1443)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>41 (16, 93)</t>
+          <t>94 (39, 207)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37 (18, 71)</t>
+          <t>89 (47, 159)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>342 (153, 718)</t>
+          <t>824 (401, 1605)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>281 (104, 639)</t>
+          <t>687 (280, 1443)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>41 (16, 93)</t>
+          <t>94 (39, 207)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>37 (18, 71)</t>
+          <t>89 (47, 159)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>342 (152, 721)</t>
+          <t>815 (395, 1596)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>281 (104, 641)</t>
+          <t>679 (275, 1435)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40 (16, 93)</t>
+          <t>93 (38, 205)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>88 (46, 158)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>342 (152, 721)</t>
+          <t>815 (395, 1596)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>281 (104, 641)</t>
+          <t>679 (275, 1435)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>40 (16, 93)</t>
+          <t>93 (38, 205)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>88 (46, 158)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>341 (151, 725)</t>
+          <t>806 (388, 1587)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>281 (104, 646)</t>
+          <t>671 (270, 1425)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40 (15, 93)</t>
+          <t>92 (37, 203)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>87 (45, 156)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>341 (151, 725)</t>
+          <t>806 (388, 1587)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>281 (104, 646)</t>
+          <t>671 (270, 1425)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>40 (15, 93)</t>
+          <t>92 (37, 203)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>87 (45, 156)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>341 (150, 731)</t>
+          <t>797 (381, 1579)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>281 (103, 650)</t>
+          <t>664 (265, 1417)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40 (15, 93)</t>
+          <t>91 (37, 202)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>86 (45, 155)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>341 (150, 731)</t>
+          <t>797 (381, 1579)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>281 (103, 650)</t>
+          <t>664 (265, 1417)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>40 (15, 93)</t>
+          <t>91 (37, 202)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>86 (45, 155)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>407 (200, 791)</t>
+          <t>979 (495, 1820)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>340 (142, 711)</t>
+          <t>831 (357, 1654)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>47 (20, 101)</t>
+          <t>108 (46, 226)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>103 (57, 177)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>407 (200, 791)</t>
+          <t>979 (495, 1820)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>340 (142, 711)</t>
+          <t>831 (357, 1654)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>47 (20, 101)</t>
+          <t>108 (46, 226)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>103 (57, 177)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>400 (195, 784)</t>
+          <t>964 (484, 1804)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>333 (138, 704)</t>
+          <t>816 (347, 1638)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>47 (20, 101)</t>
+          <t>107 (46, 226)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>103 (56, 177)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>400 (195, 784)</t>
+          <t>964 (484, 1804)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>333 (138, 704)</t>
+          <t>816 (347, 1638)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>47 (20, 101)</t>
+          <t>107 (46, 226)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>103 (56, 177)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393 (190, 777)</t>
+          <t>948 (474, 1787)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>327 (133, 697)</t>
+          <t>801 (337, 1621)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>47 (19, 101)</t>
+          <t>106 (45, 226)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>102 (56, 177)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>393 (190, 777)</t>
+          <t>948 (474, 1787)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>327 (133, 697)</t>
+          <t>801 (337, 1621)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>47 (19, 101)</t>
+          <t>106 (45, 226)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>43 (23, 78)</t>
+          <t>102 (56, 177)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>387 (185, 771)</t>
+          <t>932 (463, 1768)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>321 (129, 690)</t>
+          <t>786 (328, 1602)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>46 (19, 101)</t>
+          <t>105 (45, 225)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>42 (22, 78)</t>
+          <t>101 (55, 176)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>387 (185, 771)</t>
+          <t>932 (463, 1768)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>321 (129, 690)</t>
+          <t>786 (328, 1602)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>46 (19, 101)</t>
+          <t>105 (45, 225)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>42 (22, 78)</t>
+          <t>101 (55, 176)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>381 (181, 765)</t>
+          <t>916 (453, 1747)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>315 (126, 685)</t>
+          <t>771 (319, 1582)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>46 (19, 101)</t>
+          <t>104 (44, 223)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>42 (22, 77)</t>
+          <t>100 (54, 175)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>381 (181, 765)</t>
+          <t>916 (453, 1747)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>315 (126, 685)</t>
+          <t>771 (319, 1582)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>46 (19, 101)</t>
+          <t>104 (44, 223)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>42 (22, 77)</t>
+          <t>100 (54, 175)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>375 (177, 760)</t>
+          <t>901 (443, 1726)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>310 (122, 680)</t>
+          <t>757 (311, 1562)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>45 (18, 100)</t>
+          <t>103 (43, 222)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>41 (22, 77)</t>
+          <t>99 (53, 173)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>375 (177, 760)</t>
+          <t>901 (443, 1726)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>310 (122, 680)</t>
+          <t>757 (311, 1562)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>45 (18, 100)</t>
+          <t>103 (43, 222)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>41 (22, 77)</t>
+          <t>99 (53, 173)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>370 (174, 756)</t>
+          <t>886 (434, 1706)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>306 (119, 675)</t>
+          <t>743 (303, 1543)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45 (18, 99)</t>
+          <t>101 (42, 219)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>41 (21, 76)</t>
+          <t>97 (52, 172)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>370 (174, 756)</t>
+          <t>886 (434, 1706)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>306 (119, 675)</t>
+          <t>743 (303, 1543)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>45 (18, 99)</t>
+          <t>101 (42, 219)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>41 (21, 76)</t>
+          <t>97 (52, 172)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>366 (170, 753)</t>
+          <t>870 (425, 1687)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>302 (117, 673)</t>
+          <t>730 (295, 1524)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>44 (18, 99)</t>
+          <t>99 (41, 217)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>40 (21, 76)</t>
+          <t>96 (51, 170)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>366 (170, 753)</t>
+          <t>870 (425, 1687)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>302 (117, 673)</t>
+          <t>730 (295, 1524)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>44 (18, 99)</t>
+          <t>99 (41, 217)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>40 (21, 76)</t>
+          <t>96 (51, 170)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>362 (167, 751)</t>
+          <t>856 (416, 1668)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>299 (115, 671)</t>
+          <t>717 (288, 1507)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>43 (17, 98)</t>
+          <t>98 (40, 215)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40 (20, 75)</t>
+          <t>94 (50, 168)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>362 (167, 751)</t>
+          <t>856 (416, 1668)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>299 (115, 671)</t>
+          <t>717 (288, 1507)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>43 (17, 98)</t>
+          <t>98 (40, 215)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>40 (20, 75)</t>
+          <t>94 (50, 168)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>359 (164, 750)</t>
+          <t>842 (407, 1650)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>296 (112, 670)</t>
+          <t>704 (282, 1489)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>43 (17, 97)</t>
+          <t>96 (40, 213)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>39 (20, 75)</t>
+          <t>93 (49, 166)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>359 (164, 750)</t>
+          <t>842 (407, 1650)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>296 (112, 670)</t>
+          <t>704 (282, 1489)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>43 (17, 97)</t>
+          <t>96 (40, 213)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>39 (20, 75)</t>
+          <t>93 (49, 166)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>355 (162, 749)</t>
+          <t>828 (398, 1632)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>293 (110, 668)</t>
+          <t>692 (275, 1472)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>42 (17, 97)</t>
+          <t>95 (39, 210)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>39 (19, 74)</t>
+          <t>91 (48, 164)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>355 (162, 749)</t>
+          <t>828 (398, 1632)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>293 (110, 668)</t>
+          <t>692 (275, 1472)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>42 (17, 97)</t>
+          <t>95 (39, 210)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>39 (19, 74)</t>
+          <t>91 (48, 164)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>353 (159, 750)</t>
+          <t>814 (390, 1614)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>291 (109, 668)</t>
+          <t>679 (269, 1454)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>42 (16, 96)</t>
+          <t>93 (38, 208)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>38 (19, 74)</t>
+          <t>89 (47, 162)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>353 (159, 750)</t>
+          <t>814 (390, 1614)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>291 (109, 668)</t>
+          <t>679 (269, 1454)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>42 (16, 96)</t>
+          <t>93 (38, 208)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>38 (19, 74)</t>
+          <t>89 (47, 162)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>350 (156, 751)</t>
+          <t>801 (381, 1595)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>289 (107, 669)</t>
+          <t>666 (262, 1437)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>41 (16, 96)</t>
+          <t>92 (37, 205)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>38 (19, 74)</t>
+          <t>88 (46, 160)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>350 (156, 751)</t>
+          <t>801 (381, 1595)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>289 (107, 669)</t>
+          <t>666 (262, 1437)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>41 (16, 96)</t>
+          <t>92 (37, 205)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>38 (19, 74)</t>
+          <t>88 (46, 160)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>348 (154, 752)</t>
+          <t>787 (373, 1577)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>287 (105, 669)</t>
+          <t>654 (256, 1420)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>41 (16, 96)</t>
+          <t>90 (37, 203)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>37 (18, 73)</t>
+          <t>86 (45, 158)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>348 (154, 752)</t>
+          <t>787 (373, 1577)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>287 (105, 669)</t>
+          <t>654 (256, 1420)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>41 (16, 96)</t>
+          <t>90 (37, 203)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>37 (18, 73)</t>
+          <t>86 (45, 158)</t>
         </is>
       </c>
     </row>
